--- a/MedicalLink/Templates/BC_40_BHYT21ChenhLech2018.xlsx
+++ b/MedicalLink/Templates/BC_40_BHYT21ChenhLech2018.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -129,6 +129,45 @@
   </si>
   <si>
     <t>&amp;=[DATA1].CHENH_17_TRUOC13</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>(7)=(4)*(5)*(6)</t>
+  </si>
+  <si>
+    <t>(8)</t>
+  </si>
+  <si>
+    <t>(9)=(4)*(5)*(8)</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>(12)=(11)-(9)</t>
+  </si>
+  <si>
+    <t>(13)=(11)-(7)</t>
+  </si>
+  <si>
+    <t>(11)=(5)*(10)</t>
   </si>
 </sst>
 </file>
@@ -139,7 +178,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +227,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -209,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -232,12 +276,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,6 +372,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,8 +387,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,14 +747,14 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="17"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
@@ -681,14 +766,14 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="17"/>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
@@ -735,110 +820,151 @@
       </c>
       <c r="N4" s="15"/>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:14" s="32" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11">
-        <f>SUM(E5:E5)/2</f>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
+        <f>SUM(E6:E6)/2</f>
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
-        <f>SUM(G5:G5)/2</f>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
+        <f>SUM(G6:G6)/2</f>
         <v>0</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11">
-        <f>SUM(I5:I5)/2</f>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11">
+        <f>SUM(I6:I6)/2</f>
         <v>0</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
-        <f>SUM(K5:K5)/2</f>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
+        <f>SUM(K6:K6)/2</f>
         <v>0</v>
       </c>
-      <c r="L6" s="11">
-        <f>SUM(L5:L5)/2</f>
+      <c r="L7" s="11">
+        <f>SUM(L6:L6)/2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="11">
-        <f>SUM(M5:M5)/2</f>
+      <c r="M7" s="11">
+        <f>SUM(M6:M6)/2</f>
         <v>0</v>
       </c>
-      <c r="N6" s="16"/>
+      <c r="N7" s="16"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K8" s="26" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E2:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:N5">
+  <conditionalFormatting sqref="A6:N6">
     <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
-      <formula>$N5=3</formula>
+      <formula>$N6=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$N5=2</formula>
+      <formula>$N6=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>$N5=1</formula>
+      <formula>$N6=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/MedicalLink/Templates/BC_40_BHYT21ChenhLech2018.xlsx
+++ b/MedicalLink/Templates/BC_40_BHYT21ChenhLech2018.xlsx
@@ -375,6 +375,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,21 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,14 +747,14 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="17"/>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
@@ -766,14 +766,14 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="17"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
@@ -820,44 +820,44 @@
       </c>
       <c r="N4" s="15"/>
     </row>
-    <row r="5" spans="1:14" s="32" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:14" s="28" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="30" t="s">
         <v>44</v>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11">
-        <f>SUM(E6:E6)/2</f>
+        <f>SUM(E6:E6)/3</f>
         <v>0</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11">
-        <f>SUM(G6:G6)/2</f>
+        <f>SUM(G6:G6)/3</f>
         <v>0</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11">
-        <f>SUM(I6:I6)/2</f>
+        <f>SUM(I6:I6)/3</f>
         <v>0</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11">
-        <f>SUM(K6:K6)/2</f>
+        <f>SUM(K6:K6)/3</f>
         <v>0</v>
       </c>
       <c r="L7" s="11">
-        <f>SUM(L6:L6)/2</f>
+        <f>SUM(L6:L6)/3</f>
         <v>0</v>
       </c>
       <c r="M7" s="11">
-        <f>SUM(M6:M6)/2</f>
+        <f t="shared" ref="L7:M7" si="0">SUM(M6:M6)/3</f>
         <v>0</v>
       </c>
       <c r="N7" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/MedicalLink/Templates/BC_40_BHYT21ChenhLech2018.xlsx
+++ b/MedicalLink/Templates/BC_40_BHYT21ChenhLech2018.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>STT</t>
   </si>
@@ -161,13 +161,31 @@
     <t>(10)</t>
   </si>
   <si>
-    <t>(12)=(11)-(9)</t>
-  </si>
-  <si>
-    <t>(13)=(11)-(7)</t>
-  </si>
-  <si>
-    <t>(11)=(5)*(10)</t>
+    <t>&amp;=[DATA1].GIABHYT_21</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].THANHTIEN_21</t>
+  </si>
+  <si>
+    <t>Đơn giá BHYT21</t>
+  </si>
+  <si>
+    <t>Thành tiền BHYT21</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>(13)=(5)*(12)</t>
+  </si>
+  <si>
+    <t>(14)=(11)-(9)</t>
+  </si>
+  <si>
+    <t>(15)=(11)-(7)</t>
+  </si>
+  <si>
+    <t>(11)=(4)*(5)*(10)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +425,91 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -718,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,19 +831,19 @@
     <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="18.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="13" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="15" width="18.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="13" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
@@ -758,9 +860,11 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
-      <c r="N1" s="14"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
@@ -777,8 +881,10 @@
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -813,14 +919,20 @@
         <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:14" s="28" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="28" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>33</v>
       </c>
@@ -852,16 +964,22 @@
         <v>42</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -896,16 +1014,22 @@
         <v>30</v>
       </c>
       <c r="L6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="O6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
@@ -931,45 +1055,63 @@
         <f>SUM(K6:K6)/3</f>
         <v>0</v>
       </c>
-      <c r="L7" s="11">
-        <f>SUM(L6:L6)/3</f>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11">
+        <f>SUM(M6:M6)/3</f>
         <v>0</v>
       </c>
-      <c r="M7" s="11">
-        <f t="shared" ref="L7:M7" si="0">SUM(M6:M6)/3</f>
+      <c r="N7" s="11">
+        <f>SUM(N6:N6)/3</f>
         <v>0</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="O7" s="11">
+        <f t="shared" ref="O7" si="0">SUM(O6:O6)/3</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K9" s="32" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K9:O9"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E2:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:N6">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
-      <formula>$N6=3</formula>
+  <conditionalFormatting sqref="A6:K6 N6:P6">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+      <formula>$P6=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$N6=2</formula>
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+      <formula>$P6=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>$N6=1</formula>
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>$P6=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:M6">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$P6=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$P6=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$P6=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
